--- a/Task/M2M-004/M2M-004-estimate.xlsx
+++ b/Task/M2M-004/M2M-004-estimate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\M2M\m2m-clothing\Task\F004\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\m2m\m2m-clothing\Task\M2M-004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9BB994-1E7C-46A2-8301-17B453504161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EDD9B8-EFE0-4B47-958F-AB0B32ADBD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98C77524-FCA8-4D9B-8A40-707840F3260C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{98C77524-FCA8-4D9B-8A40-707840F3260C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -366,7 +366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -508,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,18 +519,18 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -555,11 +555,11 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D7" si="0">C2/8</f>
+        <f>C2/8</f>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -570,11 +570,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2:D7" si="0">C3/8</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -589,7 +589,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -604,7 +604,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -619,7 +619,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
@@ -647,7 +647,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" s="7"/>
     </row>
   </sheetData>
